--- a/all_motion_feature_data/MissingPercentTable.xlsx
+++ b/all_motion_feature_data/MissingPercentTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/sbhatt15_jh_edu/Documents/Shubhayu_Projects/Johns Hopkins University/ICU Motion Study/nims/all_motion_feature_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_D045EA1F4C73869CF4AE2FA6EF012D162101B24E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E40C0474-A566-8F4E-A247-042EFDA4032A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_D045EA1F4C73869CF4AE2FA6EF012D162101B24E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E109E0FA-B2AE-C741-A557-B544BE3A3884}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,7 +739,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -760,6 +760,46 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -918,28 +958,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -961,25 +980,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -994,20 +994,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D025406F-4001-D545-BE90-49944590A3BF}" name="Table1" displayName="Table1" ref="A1:K70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D025406F-4001-D545-BE90-49944590A3BF}" name="Table1" displayName="Table1" ref="A1:K70" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K70" xr:uid="{8AD5409B-DFEE-F343-812B-BF97365F3D7F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K70">
+    <sortCondition ref="A1:A70"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0275474F-D245-4443-B749-B8CDDAD00BA3}" name="Study Patient No." dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{82442017-0F19-9742-84FB-4D3C6A6AB187}" name="Bed" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6C1883E3-52C7-764E-BB78-1D84AFE2E528}" name="LA" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2B8DAD2B-DC8F-954A-9085-C4BAA2AC7CEB}" name="LE" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C91DCBD4-DF10-7C4F-9703-A81C068071BE}" name="LW" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A27EC3AC-F3EC-F145-83B4-7037696855BC}" name="RA" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{11C136C3-AFB5-024D-BBDF-FB3F7404176E}" name="RE" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{C2171DCF-3869-4546-A2A3-AA0017C78FB5}" name="RW" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{096A4DED-FC04-634B-AA61-F53CD1AB7CE1}" name="Start Timestamp" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{DDEFFD1C-AF2E-AE40-B18C-BDD416F64935}" name="End Timestamp" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00A66A17-C1D8-E54D-A21B-502724DB72E9}" name="Recording Duration" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{0275474F-D245-4443-B749-B8CDDAD00BA3}" name="Study Patient No." dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{82442017-0F19-9742-84FB-4D3C6A6AB187}" name="Bed" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6C1883E3-52C7-764E-BB78-1D84AFE2E528}" name="LA" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2B8DAD2B-DC8F-954A-9085-C4BAA2AC7CEB}" name="LE" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C91DCBD4-DF10-7C4F-9703-A81C068071BE}" name="LW" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A27EC3AC-F3EC-F145-83B4-7037696855BC}" name="RA" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{11C136C3-AFB5-024D-BBDF-FB3F7404176E}" name="RE" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C2171DCF-3869-4546-A2A3-AA0017C78FB5}" name="RW" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{096A4DED-FC04-634B-AA61-F53CD1AB7CE1}" name="Start Timestamp" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{DDEFFD1C-AF2E-AE40-B18C-BDD416F64935}" name="End Timestamp" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00A66A17-C1D8-E54D-A21B-502724DB72E9}" name="Recording Duration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1313,7 +1316,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/all_motion_feature_data/MissingPercentTable.xlsx
+++ b/all_motion_feature_data/MissingPercentTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/sbhatt15_jh_edu/Documents/Shubhayu_Projects/Johns Hopkins University/ICU Motion Study/nims/all_motion_feature_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_D045EA1F4C73869CF4AE2FA6EF012D162101B24E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E109E0FA-B2AE-C741-A557-B544BE3A3884}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_D045EA1F4C73869CF4AE2FA6EF012D162101B24E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{159411C4-5616-E243-84CA-FD8CFB101998}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="211">
   <si>
-    <t>Study Patient No.</t>
-  </si>
-  <si>
     <t>Bed</t>
   </si>
   <si>
@@ -653,6 +650,9 @@
   </si>
   <si>
     <t>22:59:55</t>
+  </si>
+  <si>
+    <t>Accel Patient No.</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
     <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0275474F-D245-4443-B749-B8CDDAD00BA3}" name="Study Patient No." dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{0275474F-D245-4443-B749-B8CDDAD00BA3}" name="Accel Patient No." dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{82442017-0F19-9742-84FB-4D3C6A6AB187}" name="Bed" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{6C1883E3-52C7-764E-BB78-1D84AFE2E528}" name="LA" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{2B8DAD2B-DC8F-954A-9085-C4BAA2AC7CEB}" name="LE" dataDxfId="7"/>
@@ -1315,9 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1329,37 +1327,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1388,13 +1386,13 @@
         <v>4.3887991383952614E-2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1423,13 +1421,13 @@
         <v>8.6716791979949873E-2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1458,13 +1456,13 @@
         <v>2.3848684210526317E-2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1493,13 +1491,13 @@
         <v>5.5187637969094923E-4</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1528,13 +1526,13 @@
         <v>6.8873937677053826E-2</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1563,13 +1561,13 @@
         <v>0.42592592592592593</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1598,13 +1596,13 @@
         <v>2.9926335174953961E-3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1633,13 +1631,13 @@
         <v>5.7738095238095239E-3</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1668,13 +1666,13 @@
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1703,13 +1701,13 @@
         <v>2.5193798449612403E-3</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1738,13 +1736,13 @@
         <v>0.1511461318051576</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1773,13 +1771,13 @@
         <v>6.1315496098104797E-4</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1808,13 +1806,13 @@
         <v>1.1820330969267139E-4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1843,13 +1841,13 @@
         <v>1.2571570823998008E-2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1878,13 +1876,13 @@
         <v>3.5174111853675694E-4</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1913,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1948,13 +1946,13 @@
         <v>2.5703463203463205E-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1983,13 +1981,13 @@
         <v>1.4683322375630067E-2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2018,13 +2016,13 @@
         <v>7.3696145124716556E-4</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2053,13 +2051,13 @@
         <v>4.7010154193305752E-4</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2088,13 +2086,13 @@
         <v>1.1606313834726091E-4</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2123,13 +2121,13 @@
         <v>7.133592736705577E-3</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2158,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2193,13 +2191,13 @@
         <v>4.0537410238591616E-4</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2228,13 +2226,13 @@
         <v>4.761904761904762E-5</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2263,13 +2261,13 @@
         <v>3.5816618911174784E-4</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2298,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2333,13 +2331,13 @@
         <v>2.5702426564495531E-2</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2368,13 +2366,13 @@
         <v>3.5637918745545262E-4</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2403,13 +2401,13 @@
         <v>8.8220360497588222E-3</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2438,13 +2436,13 @@
         <v>3.6023054755043225E-4</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2473,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2508,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2543,13 +2541,13 @@
         <v>1.1075191570881226E-2</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2578,13 +2576,13 @@
         <v>4.2163543441226574E-2</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2613,13 +2611,13 @@
         <v>4.9825610363726954E-4</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2648,13 +2646,13 @@
         <v>5.551739926739927E-3</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2683,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2718,13 +2716,13 @@
         <v>7.5411913814955643E-3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2753,13 +2751,13 @@
         <v>1.4635124298315958E-2</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2788,13 +2786,13 @@
         <v>1.2271307452030344E-3</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2823,13 +2821,13 @@
         <v>5.6401766004415009E-2</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2858,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2893,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2928,13 +2926,13 @@
         <v>1.8129079042784627E-4</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2963,13 +2961,13 @@
         <v>2.729363350278383E-2</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2998,13 +2996,13 @@
         <v>4.8520135856380397E-4</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3033,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3068,13 +3066,13 @@
         <v>1.1337868480725624E-4</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3103,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3138,13 +3136,13 @@
         <v>3.455425017277125E-4</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3173,13 +3171,13 @@
         <v>1.128526645768025E-2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3208,13 +3206,13 @@
         <v>0.84294354838709673</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3243,13 +3241,13 @@
         <v>1.0704345964461572E-4</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3278,13 +3276,13 @@
         <v>8.7064676616915426E-3</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3313,13 +3311,13 @@
         <v>8.547008547008547E-4</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3348,13 +3346,13 @@
         <v>8.9541547277936968E-4</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3383,13 +3381,13 @@
         <v>1.0727272727272728E-2</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3418,13 +3416,13 @@
         <v>0.15405589638718473</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3453,13 +3451,13 @@
         <v>2.7322404371584699E-4</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3488,13 +3486,13 @@
         <v>9.3961799137399875E-3</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3523,13 +3521,13 @@
         <v>3.169663439372983E-3</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3558,13 +3556,13 @@
         <v>0.56568489948574097</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3593,13 +3591,13 @@
         <v>2.7448932219127205E-2</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3628,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3663,13 +3661,13 @@
         <v>1.3541666666666667E-2</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3698,13 +3696,13 @@
         <v>8.0850080850080849E-4</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3733,13 +3731,13 @@
         <v>1.1606313834726091E-4</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3768,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/all_motion_feature_data/MissingPercentTable.xlsx
+++ b/all_motion_feature_data/MissingPercentTable.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/sbhatt15_jh_edu/Documents/Shubhayu_Projects/Johns Hopkins University/ICU Motion Study/nims/all_motion_feature_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/shubhayu/jhu/icu_motion_study/nims/all_motion_feature_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_D045EA1F4C73869CF4AE2FA6EF012D162101B24E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{159411C4-5616-E243-84CA-FD8CFB101998}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FE629-F054-2249-81A5-7E313EB79856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="212">
   <si>
     <t>Bed</t>
   </si>
@@ -653,18 +654,27 @@
   </si>
   <si>
     <t>Accel Patient No.</t>
+  </si>
+  <si>
+    <t>Total Recording Duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -678,7 +688,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -693,11 +703,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,11 +772,294 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -994,25 +1332,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D025406F-4001-D545-BE90-49944590A3BF}" name="Table1" displayName="Table1" ref="A1:K70" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D025406F-4001-D545-BE90-49944590A3BF}" name="Table1" displayName="Table1" ref="A1:K70" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:K70" xr:uid="{8AD5409B-DFEE-F343-812B-BF97365F3D7F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K70">
     <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0275474F-D245-4443-B749-B8CDDAD00BA3}" name="Accel Patient No." dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{82442017-0F19-9742-84FB-4D3C6A6AB187}" name="Bed" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6C1883E3-52C7-764E-BB78-1D84AFE2E528}" name="LA" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2B8DAD2B-DC8F-954A-9085-C4BAA2AC7CEB}" name="LE" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{C91DCBD4-DF10-7C4F-9703-A81C068071BE}" name="LW" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A27EC3AC-F3EC-F145-83B4-7037696855BC}" name="RA" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{11C136C3-AFB5-024D-BBDF-FB3F7404176E}" name="RE" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{C2171DCF-3869-4546-A2A3-AA0017C78FB5}" name="RW" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{096A4DED-FC04-634B-AA61-F53CD1AB7CE1}" name="Start Timestamp" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{DDEFFD1C-AF2E-AE40-B18C-BDD416F64935}" name="End Timestamp" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00A66A17-C1D8-E54D-A21B-502724DB72E9}" name="Recording Duration" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0275474F-D245-4443-B749-B8CDDAD00BA3}" name="Accel Patient No." dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{82442017-0F19-9742-84FB-4D3C6A6AB187}" name="Bed" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{6C1883E3-52C7-764E-BB78-1D84AFE2E528}" name="LA" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{2B8DAD2B-DC8F-954A-9085-C4BAA2AC7CEB}" name="LE" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{C91DCBD4-DF10-7C4F-9703-A81C068071BE}" name="LW" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{A27EC3AC-F3EC-F145-83B4-7037696855BC}" name="RA" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{11C136C3-AFB5-024D-BBDF-FB3F7404176E}" name="RE" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C2171DCF-3869-4546-A2A3-AA0017C78FB5}" name="RW" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{096A4DED-FC04-634B-AA61-F53CD1AB7CE1}" name="Start Timestamp" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{DDEFFD1C-AF2E-AE40-B18C-BDD416F64935}" name="End Timestamp" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00A66A17-C1D8-E54D-A21B-502724DB72E9}" name="Recording Duration" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3A2B899-42A9-AD4A-A27F-E95A2D4284E7}" name="Table13" displayName="Table13" ref="A1:I70" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I70" xr:uid="{DE1CC591-8DC0-EF49-84CE-3E0F31135FE7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I70">
+    <sortCondition ref="A1:A70"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{634FA503-DC12-F940-8046-BD59E4F8E88F}" name="Accel Patient No." dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5D635B08-39BD-694B-87E1-0EE09FCF10FC}" name="Bed" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CB1D132E-5C2A-104B-8147-8357FD26D5B9}" name="LA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{063A83B6-36B4-884D-BE4E-FA6A40603A91}" name="LE" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F4CBA87A-C9D0-B64B-9EAE-09423DD960F5}" name="LW" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{7011E1B6-370E-0544-AFA7-3CF40742693D}" name="RA" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1C4FF1AE-92A1-2047-86A2-DB70051EFA3A}" name="RE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D33BFE64-3E38-6C4F-8234-14CB0CC3D408}" name="RW" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C8539A4D-1256-6944-9E0B-314BE27A6511}" name="Total Recording Duration" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1315,7 +1674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3781,4 +4142,2270 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA382024-FA6B-3E41-8EEC-2970019423A5}">
+  <dimension ref="A1:K70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>4.3753365643511039E-2</v>
+      </c>
+      <c r="C2" s="12">
+        <v>4.3887991383952614E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4.3887991383952614E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4.3887991383952614E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>4.3753365643511039E-2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>4.3887991383952614E-2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>4.3887991383952614E-2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12">
+        <v>8.6591478696741858E-2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8.6591478696741858E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8.6716791979949873E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.6716791979949873E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>8.6591478696741858E-2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>8.6716791979949873E-2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>8.6716791979949873E-2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2.3985745614035089E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2.3848684210526317E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.3848684210526317E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2.3848684210526317E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2.3985745614035089E-2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2.3848684210526317E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2.3848684210526317E-2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5.5187637969094923E-4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <v>6.8873937677053826E-2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.42515432098765432</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.42541152263374488</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2.9926335174953961E-3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>5.7738095238095239E-3</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4.8185941043083899E-3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="F10" s="13">
+        <v>4.8185941043083899E-3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2.5193798449612403E-3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.15520534861509075</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.1511461318051576</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.1511461318051576</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.1511461318051576</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.1511461318051576</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.1511461318051576</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.1511461318051576</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12">
+        <v>5.0167224080267553E-4</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3.3444816053511704E-4</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.13115942028985508</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.73706800445930876</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3.8461538461538464E-3</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3.9018952062430326E-4</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6.1315496098104797E-4</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5.9101654846335695E-5</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5.9101654846335695E-5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5.9101654846335695E-5</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5.9101654846335695E-5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1.1820330969267139E-4</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1.2322628827483197E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.23848643266119E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.2633806323126712E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.2571570823998008E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.2509335324869305E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3.0868807567836692E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1.2571570823998008E-2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3.8105287841482005E-4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>6.4485871731738778E-4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2.6527142689647086E-2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>8.500410364638293E-4</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3.5174111853675694E-4</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.3041210224308815E-4</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3.2603025560772042E-4</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1.3041210224308815E-4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.1737089201877935E-3</v>
+      </c>
+      <c r="G17" s="13">
+        <v>6.5206051121544076E-5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1.0146103896103895E-3</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2.3674242424242425E-3</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2.5703463203463205E-3</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1.4518956826649134E-2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1.4738110891957045E-2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.490247644093798E-2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1.5285996055226824E-2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.69488275257506027</v>
+      </c>
+      <c r="G19" s="13">
+        <v>6.6348893271970188E-2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1.4683322375630067E-2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.60198412698412695</v>
+      </c>
+      <c r="G20" s="13">
+        <v>9.0702947845804993E-4</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7.3696145124716556E-4</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.4769963645480757</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.40149805691362667</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2.977309765576031E-3</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1.2536041118214867E-4</v>
+      </c>
+      <c r="H21" s="13">
+        <v>4.7010154193305752E-4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>5.2402506963788301E-2</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5.8031569173630455E-5</v>
+      </c>
+      <c r="F22" s="13">
+        <v>5.8031569173630455E-5</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1.27669452181987E-3</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1.1606313834726091E-4</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>23</v>
+      </c>
+      <c r="B23" s="12">
+        <v>6.8904020752269778E-3</v>
+      </c>
+      <c r="C23" s="12">
+        <v>6.9714656290531781E-3</v>
+      </c>
+      <c r="D23" s="13">
+        <v>8.4306095979247726E-3</v>
+      </c>
+      <c r="E23" s="13">
+        <v>7.133592736705577E-3</v>
+      </c>
+      <c r="F23" s="13">
+        <v>6.9714656290531781E-3</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.70711738002594038</v>
+      </c>
+      <c r="H23" s="13">
+        <v>7.133592736705577E-3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2.5290844714213456E-4</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>26</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>4.0537410238591616E-4</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>27</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.10738095238095238</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.87928571428571434</v>
+      </c>
+      <c r="H26" s="13">
+        <v>4.761904761904762E-5</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>28</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>5.9694364851957973E-5</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3.5816618911174784E-4</v>
+      </c>
+      <c r="F27" s="13">
+        <v>8.3572110792741168E-4</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1.7908309455587392E-4</v>
+      </c>
+      <c r="H27" s="13">
+        <v>3.5816618911174784E-4</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>29</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>9.6968493513370405E-2</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>30</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2.4638143891017456E-2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2.5223499361430396E-2</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2.5436355896126011E-2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.14149638143891016</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2.5276713495104301E-2</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2.5489570029799916E-2</v>
+      </c>
+      <c r="H29" s="13">
+        <v>2.5702426564495531E-2</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>31</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5.9396531242575434E-5</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.99994060346875746</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>3.5637918745545262E-4</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>32</v>
+      </c>
+      <c r="B31" s="12">
+        <v>8.3777608530083772E-3</v>
+      </c>
+      <c r="C31" s="12">
+        <v>8.7585681645087586E-3</v>
+      </c>
+      <c r="D31" s="13">
+        <v>8.6316323940086315E-3</v>
+      </c>
+      <c r="E31" s="13">
+        <v>8.7585681645087586E-3</v>
+      </c>
+      <c r="F31" s="13">
+        <v>8.8220360497588222E-3</v>
+      </c>
+      <c r="G31" s="13">
+        <v>8.8220360497588222E-3</v>
+      </c>
+      <c r="H31" s="13">
+        <v>8.8220360497588222E-3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>33</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>6.0038424591738711E-5</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3.6023054755043225E-4</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>34</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>2.3929169657812874E-4</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>35</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.21597833446174677</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>3.9494470774091627E-4</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1.6926201760324982E-4</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>36</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1.0296934865900383E-2</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1.0356800766283526E-2</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1.0296934865900383E-2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1.0536398467432951E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.20982998084291188</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1.1075191570881226E-2</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>37</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.41770774181336362</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0.39182282793867124</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>4.2163543441226574E-2</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>38</v>
+      </c>
+      <c r="B37" s="12">
+        <v>5.4683607374190334E-2</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2.4912805181863477E-4</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0.29833084205281513</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1.2456402590931738E-4</v>
+      </c>
+      <c r="G37" s="13">
+        <v>2.4912805181863477E-4</v>
+      </c>
+      <c r="H37" s="13">
+        <v>4.9825610363726954E-4</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>39</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1.0302197802197802E-3</v>
+      </c>
+      <c r="E38" s="13">
+        <v>8.585164835164835E-4</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.13089514652014653</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1.7170329670329672E-4</v>
+      </c>
+      <c r="H38" s="13">
+        <v>5.551739926739927E-3</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>40</v>
+      </c>
+      <c r="B39" s="12">
+        <v>2.6196047841913678E-2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0.55603224128965156</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0.56887025481019238</v>
+      </c>
+      <c r="F39" s="13">
+        <v>3.2501300052002083E-5</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>41</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.99993662864385302</v>
+      </c>
+      <c r="C40" s="12">
+        <v>3.6216730038022817E-2</v>
+      </c>
+      <c r="D40" s="13">
+        <v>7.1292775665399242E-3</v>
+      </c>
+      <c r="E40" s="13">
+        <v>7.5411913814955643E-3</v>
+      </c>
+      <c r="F40" s="13">
+        <v>7.9214195183776939E-3</v>
+      </c>
+      <c r="G40" s="13">
+        <v>7.7629911280101393E-3</v>
+      </c>
+      <c r="H40" s="13">
+        <v>7.5411913814955643E-3</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>42</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.99993317294840955</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1.3632718524458701E-2</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0.38753007217321572</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1.3833199679230152E-2</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1.3632718524458701E-2</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1.4768778401496926E-2</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1.4635124298315958E-2</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>43</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1.8964747880410532E-3</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1.5618027666220438E-3</v>
+      </c>
+      <c r="G42" s="13">
+        <v>8.9245872378402495E-4</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1.2271307452030344E-3</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>46</v>
+      </c>
+      <c r="B43" s="12">
+        <v>5.728476821192053E-2</v>
+      </c>
+      <c r="C43" s="12">
+        <v>5.5960264900662249E-2</v>
+      </c>
+      <c r="D43" s="13">
+        <v>8.6092715231788075E-3</v>
+      </c>
+      <c r="E43" s="13">
+        <v>5.8498896247240618E-2</v>
+      </c>
+      <c r="F43" s="13">
+        <v>5.6456953642384108E-2</v>
+      </c>
+      <c r="G43" s="13">
+        <v>5.6677704194260485E-2</v>
+      </c>
+      <c r="H43" s="13">
+        <v>5.6401766004415009E-2</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>47</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>7.8493422685529904E-2</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0.52215189873417722</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>48</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1.0168506682161533E-3</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1.936858415649816E-4</v>
+      </c>
+      <c r="E45" s="13">
+        <v>9.6842920782490801E-5</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>49</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2.4172105390379503E-4</v>
+      </c>
+      <c r="E46" s="13">
+        <v>6.0430263475948757E-5</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>3.0215131737974376E-4</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1.8129079042784627E-4</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>50</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1.2950859356088114E-2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1.3011377390462358E-2</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1.3011377390462358E-2</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.76573468893730334</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1.3313967562333575E-2</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.42138707334785769</v>
+      </c>
+      <c r="H47" s="13">
+        <v>2.729363350278383E-2</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>51</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>4.8520135856380397E-4</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>4.8520135856380397E-4</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>52</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3.0592266275085656E-4</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>53</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2.834467120181406E-4</v>
+      </c>
+      <c r="E50" s="13">
+        <v>1.1337868480725624E-4</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1.6439909297052155E-3</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1.1337868480725624E-4</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>54</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0.18071606616813959</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <v>2.0394289598912306E-3</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>55</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1.6298087998157108E-2</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="13">
+        <v>5.1831375259156877E-4</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1.151808339092375E-4</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <v>2.30361667818475E-4</v>
+      </c>
+      <c r="H52" s="13">
+        <v>3.455425017277125E-4</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>56</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1.1024033437826541E-2</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1.128526645768025E-2</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1.1442006269592476E-2</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1.1442006269592476E-2</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.70773249738766986</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.45726227795193314</v>
+      </c>
+      <c r="H53" s="13">
+        <v>1.128526645768025E-2</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>57</v>
+      </c>
+      <c r="B54" s="12">
+        <v>2.7688172043010752E-2</v>
+      </c>
+      <c r="C54" s="12">
+        <v>2.7956989247311829E-2</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2.8024193548387095E-2</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.6899193548387097</v>
+      </c>
+      <c r="F54" s="13">
+        <v>2.7956989247311829E-2</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2.8091397849462366E-2</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0.84294354838709673</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>58</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>5.3521729822307858E-5</v>
+      </c>
+      <c r="F55" s="13">
+        <v>5.3521729822307858E-5</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1.0704345964461572E-4</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1.0704345964461572E-4</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>59</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0.799697166342202</v>
+      </c>
+      <c r="C56" s="12">
+        <v>3.7854207224745834E-4</v>
+      </c>
+      <c r="D56" s="13">
+        <v>9.6798615617564344E-3</v>
+      </c>
+      <c r="E56" s="13">
+        <v>8.8686999783690237E-3</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1.627730910664071E-2</v>
+      </c>
+      <c r="G56" s="13">
+        <v>8.9227774172615185E-3</v>
+      </c>
+      <c r="H56" s="13">
+        <v>8.7064676616915426E-3</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>60</v>
+      </c>
+      <c r="B57" s="12">
+        <v>0</v>
+      </c>
+      <c r="C57" s="12">
+        <v>6.7155067155067155E-4</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1.4224664224664224E-2</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2.0146520146520149E-3</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>9.1575091575091575E-4</v>
+      </c>
+      <c r="H57" s="13">
+        <v>8.547008547008547E-4</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>61</v>
+      </c>
+      <c r="B58" s="12">
+        <v>0</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0.34258595988538681</v>
+      </c>
+      <c r="E58" s="13">
+        <v>2.9250238777459407E-3</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1.1938872970391595E-4</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>8.9541547277936968E-4</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>62</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1.006060606060606E-2</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1.0181818181818183E-2</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1.0303030303030303E-2</v>
+      </c>
+      <c r="E59" s="13">
+        <v>1.0242424242424242E-2</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1.0242424242424242E-2</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1.0424242424242424E-2</v>
+      </c>
+      <c r="H59" s="13">
+        <v>1.0727272727272728E-2</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>63</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2.2722108611679165E-4</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2.8402635764598953E-4</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.7552828902522154</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0.15405589638718473</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>64</v>
+      </c>
+      <c r="B61" s="12">
+        <v>2.7322404371584699E-4</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2.7322404371584699E-4</v>
+      </c>
+      <c r="D61" s="13">
+        <v>8.1967213114754098E-4</v>
+      </c>
+      <c r="E61" s="13">
+        <v>6.5573770491803279E-4</v>
+      </c>
+      <c r="F61" s="13">
+        <v>2.7322404371584699E-4</v>
+      </c>
+      <c r="G61" s="13">
+        <v>3.8251366120218579E-4</v>
+      </c>
+      <c r="H61" s="13">
+        <v>2.7322404371584699E-4</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>65</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0.14984596426370919</v>
+      </c>
+      <c r="D62" s="13">
+        <v>9.6118299445471355E-3</v>
+      </c>
+      <c r="E62" s="13">
+        <v>9.8582871226124465E-3</v>
+      </c>
+      <c r="F62" s="13">
+        <v>9.272951324707332E-3</v>
+      </c>
+      <c r="G62" s="13">
+        <v>9.4269870609981522E-3</v>
+      </c>
+      <c r="H62" s="13">
+        <v>9.3961799137399875E-3</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>66</v>
+      </c>
+      <c r="B63" s="12">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0</v>
+      </c>
+      <c r="D63" s="13">
+        <v>8.6445366528354077E-4</v>
+      </c>
+      <c r="E63" s="13">
+        <v>3.9188566159520516E-3</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>5.7630244352236052E-5</v>
+      </c>
+      <c r="H63" s="13">
+        <v>3.169663439372983E-3</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>67</v>
+      </c>
+      <c r="B64" s="12">
+        <v>2.6764843384759235E-2</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2.7115474520804116E-2</v>
+      </c>
+      <c r="D64" s="13">
+        <v>2.7407667134174848E-2</v>
+      </c>
+      <c r="E64" s="13">
+        <v>2.699859747545582E-2</v>
+      </c>
+      <c r="F64" s="13">
+        <v>2.7115474520804116E-2</v>
+      </c>
+      <c r="G64" s="13">
+        <v>2.7290790088826556E-2</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0.56568489948574097</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>68</v>
+      </c>
+      <c r="B65" s="12">
+        <v>8.704735376044568E-4</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0.15784586815227483</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>2.7448932219127205E-2</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>69</v>
+      </c>
+      <c r="B66" s="12">
+        <v>0</v>
+      </c>
+      <c r="C66" s="12">
+        <v>6.9637883008356546E-4</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1.1606313834726091E-4</v>
+      </c>
+      <c r="E66" s="13">
+        <v>1.1606313834726091E-4</v>
+      </c>
+      <c r="F66" s="13">
+        <v>5.2228412256267412E-4</v>
+      </c>
+      <c r="G66" s="13">
+        <v>5.7103064066852366E-2</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>70</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1.3267543859649122E-2</v>
+      </c>
+      <c r="C67" s="12">
+        <v>1.3486842105263158E-2</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1.3651315789473685E-2</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1.3432017543859649E-2</v>
+      </c>
+      <c r="F67" s="13">
+        <v>1.3486842105263158E-2</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1.4035087719298246E-2</v>
+      </c>
+      <c r="H67" s="13">
+        <v>1.3541666666666667E-2</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>71</v>
+      </c>
+      <c r="B68" s="12">
+        <v>0</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0.15176715176715178</v>
+      </c>
+      <c r="D68" s="13">
+        <v>4.6200046200046198E-4</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
+        <v>9.8175098175098171E-4</v>
+      </c>
+      <c r="H68" s="13">
+        <v>8.0850080850080849E-4</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>72</v>
+      </c>
+      <c r="B69" s="12">
+        <v>0.72655524605385324</v>
+      </c>
+      <c r="C69" s="12">
+        <v>5.8031569173630455E-5</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1.1606313834726091E-4</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2.9015784586815225E-4</v>
+      </c>
+      <c r="H69" s="13">
+        <v>1.1606313834726091E-4</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>73</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0</v>
+      </c>
+      <c r="C70" s="12">
+        <v>1.2077294685990338E-4</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1.8115942028985507E-4</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K70">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>